--- a/BNP Trades Tracker-2025-10-9 v1.xlsx
+++ b/BNP Trades Tracker-2025-10-9 v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\57. BNP Trades Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9410494E-9B58-4C71-B350-8F7BA6482C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057C1747-A652-4543-97AB-EFCABD05B5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15540" tabRatio="842" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACAFP Basis" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -922,6 +922,18 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -974,18 +986,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,429 +1062,431 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3281536236</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10351313584699386816</stp>
-        <tr r="E3" s="5"/>
+        <stp>BDH|12116854532330640252</stp>
+        <tr r="Q3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4149041498</v>
-        <stp/>
-        <stp>BDH|11868297327508497130</stp>
-        <tr r="Q3" s="12"/>
-        <tr r="M3" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3856803295</v>
+        <v>#N/A Requesting Data...3847218382</v>
         <stp/>
         <stp>BDP|11883986536691201393</stp>
         <tr r="C10" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3065090090</v>
-        <stp/>
-        <stp>BDH|16543458303858869358</stp>
-        <tr r="G3" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3908612067</v>
+        <v>#N/A Requesting Data...4023645439</v>
         <stp/>
         <stp>BDP|18062887627254797806</stp>
         <tr r="C10" s="12"/>
         <tr r="E10" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4183539793</v>
+        <v>#N/A Requesting Data...4085600187</v>
         <stp/>
         <stp>BDP|16545953933052450030</stp>
         <tr r="B10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2907892979</v>
-        <stp/>
-        <stp>BDH|16964208687670066093</stp>
-        <tr r="M3" s="8"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3312017293</v>
+        <v>#N/A Requesting Data...3463028598</v>
         <stp/>
         <stp>BDP|14650062796027575721</stp>
         <tr r="G10" s="12"/>
         <tr r="E10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3013207914</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15898023348904525848</stp>
-        <tr r="B45" s="14"/>
+        <stp>BDH|15144711807459214629</stp>
+        <tr r="M3" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3538551228</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14554289658327214950</stp>
-        <tr r="E3" s="3"/>
+        <stp>BDH|10954425499620952041</stp>
+        <tr r="F45" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4047168004</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14418508895895598068</stp>
-        <tr r="M3" s="12"/>
-        <tr r="I3" s="14"/>
+        <stp>BDH|15271328436646533101</stp>
+        <tr r="H3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4099223947</v>
-        <stp/>
-        <stp>BDH|12461074316780829179</stp>
-        <tr r="I3" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2926306259</v>
+        <v>#N/A Requesting Data...3979755306</v>
         <stp/>
         <stp>BDP|12076286461161277423</stp>
         <tr r="C10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3842014028</v>
+        <v>#N/A Requesting Data...3686224843</v>
         <stp/>
         <stp>BDP|14602333172280113394</stp>
         <tr r="C10" s="16"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3852359184</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|11939629486549063565</stp>
-        <tr r="S3" s="14"/>
+        <stp>BDH|13034394832189930911</stp>
+        <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4050866986</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11339535512284831228</stp>
+        <tr r="K3" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3836486935</v>
         <stp/>
         <stp>BDP|18219294914923540841</stp>
         <tr r="C10" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3676755029</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14652635060546728265</stp>
-        <tr r="D45" s="12"/>
-        <tr r="H45" s="12"/>
+        <stp>BDH|13824375334043592056</stp>
+        <tr r="E3" s="16"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3739467649</v>
-        <stp/>
-        <stp>BDH|13667166925681071115</stp>
-        <tr r="J45" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3421809625</v>
+        <v>#N/A Requesting Data...3102852530</v>
         <stp/>
         <stp>BDP|13030111079165378191</stp>
         <tr r="F10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3869133652</v>
+        <v>#N/A Requesting Data...4269757247</v>
         <stp/>
         <stp>BDP|17674809694487604003</stp>
         <tr r="B10" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2921302304</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14683331255940957394</stp>
-        <tr r="G3" s="5"/>
+        <stp>BDH|16230626229301294290</stp>
+        <tr r="G3" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3889532657</v>
-        <stp/>
-        <stp>BDH|12366418778878237806</stp>
-        <tr r="L45" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3304263154</v>
+        <v>#N/A Requesting Data...3643074312</v>
         <stp/>
         <stp>BDP|11473368239062878490</stp>
         <tr r="F10" s="12"/>
         <tr r="D10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3054713545</v>
+        <v>#N/A Requesting Data...3580346350</v>
         <stp/>
         <stp>BDP|14572736216992007722</stp>
         <tr r="B10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3212425015</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12097978624338460624</stp>
-        <tr r="Q3" s="14"/>
+        <stp>BDH|13141475542814203054</stp>
+        <tr r="M3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3494042437</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13227067034055069220</stp>
+        <tr r="M3" s="12"/>
+        <tr r="I3" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17184442646027426724</stp>
+        <tr r="G3" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17946252902707520517</stp>
+        <tr r="G3" s="16"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3242484810</v>
         <stp/>
         <stp>BDP|13060443244535072213</stp>
         <tr r="B10" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3590120486</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16635641902843555704</stp>
+        <stp>BDH|12761449360717514306</stp>
+        <tr r="L45" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15162662563882479367</stp>
+        <tr r="H45" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17410490907474235362</stp>
         <tr r="O3" s="12"/>
         <tr r="K3" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4110117555</v>
-        <stp/>
-        <stp>BDH|13384596211472988165</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3896276864</v>
-        <stp/>
-        <stp>BDH|11325884833647718981</stp>
-        <tr r="H45" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3398675269</v>
+        <v>#N/A Requesting Data...3004735497</v>
         <stp/>
         <stp>BDP|17166731865344641740</stp>
         <tr r="C10" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3239136108</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12396439488739152202</stp>
-        <tr r="B45" s="12"/>
+        <stp>BDH|14902072550771643548</stp>
+        <tr r="E3" s="9"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3648731184</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1028538880712934288</stp>
-        <tr r="S3" s="12"/>
-        <tr r="O3" s="14"/>
+        <stp>BDH|2198192775278593031</stp>
+        <tr r="J45" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3426309320</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|5169224297170435259</stp>
-        <tr r="G3" s="8"/>
+        <stp>BDH|3117665433933194806</stp>
+        <tr r="F45" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3605111069</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6052060976555878966</stp>
-        <tr r="I3" s="8"/>
+        <stp>BDH|2245991715683759601</stp>
+        <tr r="I3" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3453151300</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9756339051981360120</stp>
-        <tr r="K3" s="10"/>
+        <stp>BDH|7232744281751729674</stp>
+        <tr r="N3" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3816461238</v>
-        <stp/>
-        <stp>BDH|3945821647056979165</stp>
-        <tr r="E3" s="9"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4273060407</v>
+        <v>#N/A Requesting Data...2990102222</v>
         <stp/>
         <stp>BDP|9706553668206945454</stp>
         <tr r="D10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3409777743</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9289027572525667322</stp>
-        <tr r="K3" s="14"/>
+        <stp>BDH|8644075743285964009</stp>
+        <tr r="S3" s="12"/>
+        <tr r="O3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4062476274</v>
-        <stp/>
-        <stp>BDH|5499482882290106023</stp>
-        <tr r="K3" s="8"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3933194882</v>
+        <v>#N/A Requesting Data...4034878055</v>
         <stp/>
         <stp>BDP|4329662592027264695</stp>
         <tr r="B10" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3200624608</v>
-        <stp/>
-        <stp>BDH|6427274484614669205</stp>
-        <tr r="M3" s="10"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4289501961</v>
-        <stp/>
-        <stp>BDH|7054570275427739937</stp>
-        <tr r="N3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3070957426</v>
-        <stp/>
-        <stp>BDH|5710079974310159915</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3314689338</v>
+        <v>#N/A Requesting Data...4196837465</v>
         <stp/>
         <stp>BDP|3445302272426769594</stp>
         <tr r="B10" s="16"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3991934390</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6564564898689659733</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3078906460840486882</stp>
+        <tr r="G3" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3835712332</v>
         <stp/>
         <stp>BDP|6614610459362681385</stp>
         <tr r="E10" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4239337099</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2184028517626785080</stp>
-        <tr r="H3" s="2"/>
+        <stp>BDH|3137898882800080604</stp>
+        <tr r="K3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3474280214</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4800396880739900349</stp>
-        <tr r="D45" s="14"/>
+        <stp>BDH|2669988756143225814</stp>
+        <tr r="E3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2961262241</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5302064217883081298</stp>
+        <tr r="B45" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5910610681569820705</stp>
+        <tr r="G3" s="10"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1519121449667360688</stp>
+        <tr r="I3" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5277142693832393961</stp>
+        <tr r="J45" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3464298304</v>
         <stp/>
         <stp>BDP|3122389811593012513</stp>
         <tr r="C10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3945037844</v>
-        <stp/>
-        <stp>BDH|3407640349110063662</stp>
-        <tr r="L45" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3931092249</v>
-        <stp/>
-        <stp>BDH|5867173537469563984</stp>
-        <tr r="E3" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3655054263</v>
-        <stp/>
-        <stp>BDH|4695581477882603444</stp>
-        <tr r="F45" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3391299497</v>
+        <v>#N/A Requesting Data...3932314124</v>
         <stp/>
         <stp>BDP|1931107217112743305</stp>
         <tr r="D10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3621147644</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1163005449103566629</stp>
+        <tr r="L45" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4264652039</v>
         <stp/>
         <stp>BDP|8919074471278682748</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4146125271</v>
+        <v>#N/A Requesting Data...3275271576</v>
         <stp/>
         <stp>BDP|6499873574608943180</stp>
         <tr r="B10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3079184296</v>
+        <v>#N/A Requesting Data...3960907479</v>
         <stp/>
         <stp>BDP|9073119891745028595</stp>
         <tr r="E10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4005160522</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7462021783709095791</stp>
+        <tr r="G3" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3619699299</v>
         <stp/>
         <stp>BDP|7280882837258491593</stp>
         <tr r="D10" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3079196611</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1761758312845266334</stp>
-        <tr r="F3" s="2"/>
+        <stp>BDH|1373884432892784985</stp>
+        <tr r="S3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3267256394</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8429645527114728918</stp>
-        <tr r="G3" s="3"/>
+        <stp>BDH|1227556210667929054</stp>
+        <tr r="H45" s="12"/>
+        <tr r="D45" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3069607942</v>
-        <stp/>
-        <stp>BDH|1858332030387721460</stp>
-        <tr r="J45" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3274905888</v>
+        <v>#N/A Requesting Data...3103608300</v>
         <stp/>
         <stp>BDP|4720520890802409863</stp>
         <tr r="B10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3663230307</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1365840357916289864</stp>
+        <tr r="D45" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6788408684139149163</stp>
+        <tr r="K3" s="10"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3303310704</v>
         <stp/>
         <stp>BDP|2192385730727379645</stp>
         <tr r="C10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4182970578</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7361281866961478167</stp>
-        <tr r="F45" s="14"/>
+        <stp>BDH|2203144056572752787</stp>
+        <tr r="I3" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3950143805</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1606979205929211226</stp>
-        <tr r="G3" s="10"/>
+        <stp>BDH|4796325569085514766</stp>
+        <tr r="F3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4277348245</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7607087460916369486</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4130025224</v>
         <stp/>
         <stp>BDP|519161733290183679</stp>
         <tr r="B10" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3251252101</v>
+        <v>#N/A Requesting Data...3181440905</v>
         <stp/>
         <stp>BDP|332801733094788947</stp>
         <tr r="D10" s="12"/>
         <tr r="B10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3070636947</v>
+        <v>#N/A Requesting Data...3916197965</v>
         <stp/>
         <stp>BDP|416056535068485843</stp>
         <tr r="C10" s="2"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3825454417</v>
+        <v>#N/A Requesting Data...3922388166</v>
         <stp/>
         <stp>BDP|967432059673127000</stp>
         <tr r="G10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4010765071</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|755531004008709014</stp>
-        <tr r="I3" s="10"/>
+        <stp>BDH|248424323376509938</stp>
+        <tr r="B45" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3228283616</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|991921203191783085</stp>
-        <tr r="G3" s="9"/>
+        <stp>BDH|915940802084826537</stp>
+        <tr r="Q3" s="12"/>
+        <tr r="M3" s="14"/>
       </tp>
     </main>
   </volType>
@@ -10947,7 +10949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
@@ -10983,7 +10985,7 @@
       <c r="J1" s="1"/>
       <c r="L1" s="53">
         <f ca="1">TODAY()-5</f>
-        <v>45934</v>
+        <v>45935</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11045,7 +11047,7 @@
       </c>
       <c r="J3" s="5"/>
       <c r="L3" s="53" cm="1">
-        <f t="array" aca="1" ref="L3:M6" ca="1">_xll.BDH($B$4, "PX_LAST, ", $L$1, "")</f>
+        <f t="array" aca="1" ref="L3:M7" ca="1">_xll.BDH($B$4, "PX_LAST, ", $L$1, "")</f>
         <v>45936</v>
       </c>
       <c r="M3" s="3">
@@ -11053,7 +11055,7 @@
         <v>106.31399999999999</v>
       </c>
       <c r="N3" s="53" cm="1">
-        <f t="array" aca="1" ref="N3:O6" ca="1">_xll.BDH($C$4, "PX_LAST, ", $L$1, "")</f>
+        <f t="array" aca="1" ref="N3:O7" ca="1">_xll.BDH($C$4, "PX_LAST, ", $L$1, "")</f>
         <v>45936</v>
       </c>
       <c r="O3" s="3">
@@ -11176,7 +11178,7 @@
       </c>
       <c r="O6" s="3">
         <f ca="1"/>
-        <v>100.437</v>
+        <v>100.43899999999999</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -11192,8 +11194,22 @@
       <c r="D7" s="31"/>
       <c r="E7" s="1"/>
       <c r="I7" s="3"/>
-      <c r="L7" s="53"/>
-      <c r="N7" s="53"/>
+      <c r="L7" s="53">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="M7" s="3">
+        <f ca="1"/>
+        <v>104.709</v>
+      </c>
+      <c r="N7" s="53">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="O7" s="3">
+        <f ca="1"/>
+        <v>100.443</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
@@ -11237,7 +11253,7 @@
       </c>
       <c r="C10" s="13" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"PX_LAST")</f>
-        <v>100.437</v>
+        <v>100.43899999999999</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="1"/>
@@ -11263,17 +11279,17 @@
       <c r="A12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="103" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="104"/>
-      <c r="H12" s="105"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109"/>
       <c r="I12" s="40" t="s">
         <v>16</v>
       </c>
@@ -12341,7 +12357,7 @@
     <mergeCell ref="F12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12384,7 +12400,7 @@
       <c r="D1" s="31"/>
       <c r="E1" s="53">
         <f ca="1">TODAY()-5</f>
-        <v>45934</v>
+        <v>45935</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -12418,7 +12434,7 @@
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="53" cm="1">
-        <f t="array" aca="1" ref="E3:F6" ca="1">_xll.BDH($B$4, "PX_LAST, ", $E$1, "")</f>
+        <f t="array" aca="1" ref="E3:F7" ca="1">_xll.BDH($B$4, "PX_LAST, ", $E$1, "")</f>
         <v>45936</v>
       </c>
       <c r="F3" s="3">
@@ -12534,7 +12550,14 @@
         <v>0</v>
       </c>
       <c r="D7" s="31"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="F7" s="3">
+        <f ca="1"/>
+        <v>52.509</v>
+      </c>
       <c r="G7" s="53"/>
       <c r="I7" s="3"/>
       <c r="L7" s="53"/>
@@ -12595,15 +12618,15 @@
       <c r="A12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="105"/>
+      <c r="F12" s="109"/>
       <c r="G12" s="40" t="s">
         <v>16</v>
       </c>
@@ -12626,7 +12649,7 @@
       <c r="F13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="120"/>
+      <c r="G13" s="102"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -13001,7 +13024,7 @@
     <mergeCell ref="E12:F12"/>
   </mergeCells>
   <conditionalFormatting sqref="G13:G38">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13040,7 +13063,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="54">
         <f ca="1">TODAY()-5</f>
-        <v>45934</v>
+        <v>45935</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -13088,7 +13111,7 @@
         <v>32</v>
       </c>
       <c r="F3" s="53" cm="1">
-        <f t="array" aca="1" ref="F3:G6" ca="1">_xll.BDH($B$4, "PX_LAST, ", $F$1, "")</f>
+        <f t="array" aca="1" ref="F3:G7" ca="1">_xll.BDH($B$4, "PX_LAST, ", $F$1, "")</f>
         <v>45936</v>
       </c>
       <c r="G3" s="1">
@@ -13096,7 +13119,7 @@
         <v>46.728999999999999</v>
       </c>
       <c r="H3" s="53" cm="1">
-        <f t="array" aca="1" ref="H3:I6" ca="1">_xll.BDH($C$4, "PX_LAST, ", $F$1, "")</f>
+        <f t="array" aca="1" ref="H3:I7" ca="1">_xll.BDH($C$4, "PX_LAST, ", $F$1, "")</f>
         <v>45936</v>
       </c>
       <c r="I3" s="47">
@@ -13104,7 +13127,7 @@
         <v>34.582000000000001</v>
       </c>
       <c r="J3" s="53" cm="1">
-        <f t="array" aca="1" ref="J3:K6" ca="1">_xll.BDH($D$4, "PX_LAST, ", $F$1, "")</f>
+        <f t="array" aca="1" ref="J3:K7" ca="1">_xll.BDH($D$4, "PX_LAST, ", $F$1, "")</f>
         <v>45936</v>
       </c>
       <c r="K3" s="1">
@@ -13213,7 +13236,7 @@
       </c>
       <c r="G6" s="1">
         <f ca="1"/>
-        <v>47.509</v>
+        <v>47.508000000000003</v>
       </c>
       <c r="H6" s="54">
         <f ca="1"/>
@@ -13246,12 +13269,30 @@
       <c r="D7" s="44">
         <v>0</v>
       </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="1"/>
+      <c r="F7" s="78">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="G7" s="1">
+        <f ca="1"/>
+        <v>48.36</v>
+      </c>
+      <c r="H7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="I7" s="1">
+        <f ca="1"/>
+        <v>34.442</v>
+      </c>
+      <c r="J7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="K7" s="1">
+        <f ca="1"/>
+        <v>50.31</v>
+      </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -13300,7 +13341,7 @@
       </c>
       <c r="B10" s="21" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>47.508600000000001</v>
+        <v>47.50788</v>
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
@@ -13335,21 +13376,21 @@
       <c r="A12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="106" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="103" t="s">
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="109"/>
       <c r="K12" s="40" t="s">
         <v>16</v>
       </c>
@@ -13446,7 +13487,7 @@
         <f>$D$6*(A15-$A$14)/360*$D$5</f>
         <v>694.44444444444446</v>
       </c>
-      <c r="K15" s="119">
+      <c r="K15" s="101">
         <f>C15+D15+F15+G15-I15-J15</f>
         <v>-36864.819555555579</v>
       </c>
@@ -13489,7 +13530,7 @@
         <f t="shared" ref="J16:J17" si="5">$D$6*(A16-$A$14)/360*$D$5</f>
         <v>1388.8888888888889</v>
       </c>
-      <c r="K16" s="119">
+      <c r="K16" s="101">
         <f t="shared" ref="K16:K17" si="6">C16+D16+F16+G16-I16-J16</f>
         <v>-38790.459111111108</v>
       </c>
@@ -13532,7 +13573,7 @@
         <f t="shared" si="5"/>
         <v>3472.2222222222222</v>
       </c>
-      <c r="K17" s="119">
+      <c r="K17" s="101">
         <f t="shared" si="6"/>
         <v>-43588.029777777825</v>
       </c>
@@ -13575,7 +13616,7 @@
         <f t="shared" ref="J18" si="12">$D$6*(A18-$A$14)/360*$D$5</f>
         <v>4166.666666666667</v>
       </c>
-      <c r="K18" s="119">
+      <c r="K18" s="101">
         <f>C18+D18+F18+G18-I18-J18</f>
         <v>-42329.913333333294</v>
       </c>
@@ -13618,7 +13659,7 @@
         <f t="shared" ref="J19" si="13">$D$6*(A19-$A$14)/360*$D$5</f>
         <v>4861.1111111111113</v>
       </c>
-      <c r="K19" s="119">
+      <c r="K19" s="101">
         <f t="shared" ref="K19" si="14">C19+D19+F19+G19-I19-J19</f>
         <v>-44763.016888888953</v>
       </c>
@@ -13661,7 +13702,7 @@
         <f t="shared" ref="J20" si="15">$D$6*(A20-$A$14)/360*$D$5</f>
         <v>5555.5555555555557</v>
       </c>
-      <c r="K20" s="119">
+      <c r="K20" s="101">
         <f t="shared" ref="K20" si="16">C20+D20+F20+G20-I20-J20</f>
         <v>-23422.824444444454</v>
       </c>
@@ -13704,7 +13745,7 @@
         <f t="shared" ref="J21" si="17">$D$6*(A21-$A$14)/360*$D$5</f>
         <v>6250</v>
       </c>
-      <c r="K21" s="119">
+      <c r="K21" s="101">
         <f t="shared" ref="K21" si="18">C21+D21+F21+G21-I21-J21</f>
         <v>-37585.432000000001</v>
       </c>
@@ -13747,7 +13788,7 @@
         <f t="shared" ref="J22" si="19">$D$6*(A22-$A$14)/360*$D$5</f>
         <v>8333.3333333333339</v>
       </c>
-      <c r="K22" s="119">
+      <c r="K22" s="101">
         <f t="shared" ref="K22" si="20">C22+D22+F22+G22-I22-J22</f>
         <v>-34552.754666666689</v>
       </c>
@@ -13790,7 +13831,7 @@
         <f t="shared" ref="J23" si="21">$D$6*(A23-$A$14)/360*$D$5</f>
         <v>9027.7777777777792</v>
       </c>
-      <c r="K23" s="119">
+      <c r="K23" s="101">
         <f t="shared" ref="K23" si="22">C23+D23+F23+G23-I23-J23</f>
         <v>-30957.394222222225</v>
       </c>
@@ -13833,7 +13874,7 @@
         <f t="shared" ref="J24" si="28">$D$6*(A24-$A$14)/360*$D$5</f>
         <v>9722.2222222222226</v>
       </c>
-      <c r="K24" s="119">
+      <c r="K24" s="101">
         <f t="shared" ref="K24" si="29">C24+D24+F24+G24-I24-J24</f>
         <v>-38622.837777777735</v>
       </c>
@@ -13876,7 +13917,7 @@
         <f t="shared" ref="J25" si="35">$D$6*(A25-$A$14)/360*$D$5</f>
         <v>10416.666666666666</v>
       </c>
-      <c r="K25" s="119">
+      <c r="K25" s="101">
         <f t="shared" ref="K25" si="36">C25+D25+F25+G25-I25-J25</f>
         <v>-7581.4373333333551</v>
       </c>
@@ -14193,7 +14234,7 @@
     <mergeCell ref="E12:G12"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14229,7 +14270,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="54">
         <f ca="1">TODAY()-5</f>
-        <v>45934</v>
+        <v>45935</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -14265,7 +14306,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="53" cm="1">
-        <f t="array" aca="1" ref="E3:F6" ca="1">_xll.BDH($B$4, "PX_LAST, ",E1, "")</f>
+        <f t="array" aca="1" ref="E3:F7" ca="1">_xll.BDH($B$4, "PX_LAST, ",E1, "")</f>
         <v>45936</v>
       </c>
       <c r="F3" s="1">
@@ -14273,7 +14314,7 @@
         <v>57.584000000000003</v>
       </c>
       <c r="G3" s="53" cm="1">
-        <f t="array" aca="1" ref="G3:H6" ca="1">_xll.BDH($C$4, "PX_LAST, ",E1, "")</f>
+        <f t="array" aca="1" ref="G3:H7" ca="1">_xll.BDH($C$4, "PX_LAST, ",E1, "")</f>
         <v>45936</v>
       </c>
       <c r="H3" s="47">
@@ -14379,10 +14420,22 @@
       <c r="C7" s="44">
         <v>0</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="F7" s="1">
+        <f ca="1"/>
+        <v>58.39</v>
+      </c>
+      <c r="G7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="H7" s="1">
+        <f ca="1"/>
+        <v>41.026000000000003</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -14448,16 +14501,16 @@
       <c r="A12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="40" t="s">
         <v>16</v>
       </c>
@@ -14483,7 +14536,7 @@
       <c r="G13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="118"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -15092,7 +15145,7 @@
     <mergeCell ref="E12:G12"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15134,7 +15187,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="54">
         <f ca="1">TODAY()-5</f>
-        <v>45934</v>
+        <v>45935</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -15170,7 +15223,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="53" cm="1">
-        <f t="array" aca="1" ref="E3:F6" ca="1">_xll.BDH($B$4, "PX_LAST, ",E1, "")</f>
+        <f t="array" aca="1" ref="E3:F7" ca="1">_xll.BDH($B$4, "PX_LAST, ",E1, "")</f>
         <v>45936</v>
       </c>
       <c r="F3" s="1">
@@ -15178,7 +15231,7 @@
         <v>94.912000000000006</v>
       </c>
       <c r="G3" s="53" cm="1">
-        <f t="array" aca="1" ref="G3:H6" ca="1">_xll.BDH($C$4, "PX_LAST, ",E1, "")</f>
+        <f t="array" aca="1" ref="G3:H7" ca="1">_xll.BDH($C$4, "PX_LAST, ",E1, "")</f>
         <v>45936</v>
       </c>
       <c r="H3" s="47">
@@ -15262,7 +15315,7 @@
       </c>
       <c r="F6" s="1">
         <f ca="1"/>
-        <v>94.662000000000006</v>
+        <v>94.66</v>
       </c>
       <c r="G6" s="54">
         <f ca="1"/>
@@ -15270,7 +15323,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1"/>
-        <v>105.729</v>
+        <v>105.73</v>
       </c>
       <c r="I6" s="1"/>
       <c r="K6" s="73"/>
@@ -15287,10 +15340,22 @@
       <c r="C7" s="10">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="F7" s="1">
+        <f ca="1"/>
+        <v>94.694999999999993</v>
+      </c>
+      <c r="G7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="H7" s="1">
+        <f ca="1"/>
+        <v>105.782</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -15333,11 +15398,11 @@
       </c>
       <c r="B10" s="11" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>94.662000000000006</v>
+        <v>94.66</v>
       </c>
       <c r="C10" s="22" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>105.729</v>
+        <v>105.73</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -15358,16 +15423,16 @@
       <c r="A12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="40" t="s">
         <v>16</v>
       </c>
@@ -15939,7 +16004,7 @@
     <mergeCell ref="E12:G12"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15979,7 +16044,7 @@
       <c r="E1" s="1"/>
       <c r="G1" s="54">
         <f ca="1">TODAY()-5</f>
-        <v>45934</v>
+        <v>45935</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -16035,7 +16100,7 @@
         <v>48</v>
       </c>
       <c r="G3" s="53" cm="1">
-        <f t="array" aca="1" ref="G3:H6" ca="1">_xll.BDH($B$4, "PX_LAST, ", $G$1, "")</f>
+        <f t="array" aca="1" ref="G3:H7" ca="1">_xll.BDH($B$4, "PX_LAST, ", $G$1, "")</f>
         <v>45936</v>
       </c>
       <c r="H3" s="1">
@@ -16043,7 +16108,7 @@
         <v>100.666</v>
       </c>
       <c r="I3" s="53" cm="1">
-        <f t="array" aca="1" ref="I3:J6" ca="1">_xll.BDH($C$4, "PX_LAST, ", $G$1, "")</f>
+        <f t="array" aca="1" ref="I3:J7" ca="1">_xll.BDH($C$4, "PX_LAST, ", $G$1, "")</f>
         <v>45936</v>
       </c>
       <c r="J3" s="47">
@@ -16051,7 +16116,7 @@
         <v>100.8828125</v>
       </c>
       <c r="K3" s="53" cm="1">
-        <f t="array" aca="1" ref="K3:L6" ca="1">_xll.BDH($D$4, "PX_LAST, ", $G$1, "")</f>
+        <f t="array" aca="1" ref="K3:L7" ca="1">_xll.BDH($D$4, "PX_LAST, ", $G$1, "")</f>
         <v>45936</v>
       </c>
       <c r="L3" s="1">
@@ -16059,7 +16124,7 @@
         <v>94.522000000000006</v>
       </c>
       <c r="M3" s="53" cm="1">
-        <f t="array" aca="1" ref="M3:N6" ca="1">_xll.BDH($E$4, "PX_LAST, ", $G$1, "")</f>
+        <f t="array" aca="1" ref="M3:N7" ca="1">_xll.BDH($E$4, "PX_LAST, ", $G$1, "")</f>
         <v>45936</v>
       </c>
       <c r="N3" s="55">
@@ -16191,7 +16256,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1"/>
-        <v>100.68899999999999</v>
+        <v>100.69</v>
       </c>
       <c r="I6" s="54">
         <f ca="1"/>
@@ -16199,7 +16264,7 @@
       </c>
       <c r="J6" s="1">
         <f ca="1"/>
-        <v>101</v>
+        <v>100.9921875</v>
       </c>
       <c r="K6" s="54">
         <f ca="1"/>
@@ -16207,7 +16272,7 @@
       </c>
       <c r="L6" s="1">
         <f ca="1"/>
-        <v>94.308000000000007</v>
+        <v>94.316000000000003</v>
       </c>
       <c r="M6" s="54">
         <f ca="1"/>
@@ -16215,7 +16280,7 @@
       </c>
       <c r="N6" s="55">
         <f ca="1"/>
-        <v>100.4296875</v>
+        <v>100.40625</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -16234,14 +16299,38 @@
       <c r="E7" s="10">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="1"/>
+      <c r="G7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="H7" s="1">
+        <f ca="1"/>
+        <v>100.68300000000001</v>
+      </c>
+      <c r="I7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="J7" s="1">
+        <f ca="1"/>
+        <v>101.328125</v>
+      </c>
+      <c r="K7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="L7" s="1">
+        <f ca="1"/>
+        <v>94.222999999999999</v>
+      </c>
+      <c r="M7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="N7" s="1">
+        <f ca="1"/>
+        <v>101.140625</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
@@ -16297,19 +16386,19 @@
       </c>
       <c r="B10" s="11" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>100.68899999999999</v>
+        <v>100.69</v>
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>101.015625</v>
+        <v>101</v>
       </c>
       <c r="D10" s="21" cm="1">
         <f t="array" ref="D10">_xll.BDP(D4,"px_last")</f>
-        <v>94.308000000000007</v>
+        <v>94.316000000000003</v>
       </c>
       <c r="E10" s="22" cm="1">
         <f t="array" ref="E10">_xll.BDP(E4,"px_last")</f>
-        <v>100.453125</v>
+        <v>100.421875</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -16339,26 +16428,26 @@
       <c r="A12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="106" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="103" t="s">
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="109" t="s">
+      <c r="I12" s="108"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="110"/>
-      <c r="M12" s="111"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="115"/>
       <c r="N12" s="40" t="s">
         <v>16</v>
       </c>
@@ -16401,7 +16490,7 @@
       <c r="M13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="120"/>
+      <c r="N13" s="102"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
@@ -17177,7 +17266,7 @@
     <mergeCell ref="K12:M12"/>
   </mergeCells>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17213,7 +17302,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="54">
         <f ca="1">TODAY()-7</f>
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17249,20 +17338,20 @@
         <v>54</v>
       </c>
       <c r="E3" s="53" cm="1">
-        <f t="array" aca="1" ref="E3:F4" ca="1">_xll.BDH($B$4, "PX_LAST, ",E1, "")</f>
-        <v>45932</v>
+        <f t="array" aca="1" ref="E3:F3" ca="1">_xll.BDH($B$4, "PX_LAST, ",E1, "")</f>
+        <v>45938</v>
       </c>
       <c r="F3" s="1">
         <f ca="1"/>
-        <v>92.248999999999995</v>
+        <v>92.66</v>
       </c>
       <c r="G3" s="53" cm="1">
         <f t="array" aca="1" ref="G3:H8" ca="1">_xll.BDH($C$4, "PX_LAST, ",E1, "")</f>
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="H3" s="47">
         <f ca="1"/>
-        <v>46.127000000000002</v>
+        <v>45.582000000000001</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -17276,21 +17365,15 @@
       <c r="C4" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="54">
-        <f ca="1"/>
-        <v>45938</v>
-      </c>
-      <c r="F4" s="1">
-        <f ca="1"/>
-        <v>92.66</v>
-      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="54">
         <f ca="1"/>
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="H4" s="1">
         <f ca="1"/>
-        <v>45.582000000000001</v>
+        <v>46.14</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -17310,11 +17393,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="54">
         <f ca="1"/>
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="H5" s="1">
         <f ca="1"/>
-        <v>46.14</v>
+        <v>46.350999999999999</v>
       </c>
       <c r="I5" s="1"/>
       <c r="L5" s="62"/>
@@ -17333,11 +17416,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="54">
         <f ca="1"/>
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="H6" s="1">
         <f ca="1"/>
-        <v>46.350999999999999</v>
+        <v>46.396000000000001</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -17355,11 +17438,11 @@
       <c r="F7" s="1"/>
       <c r="G7" s="54">
         <f ca="1"/>
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="H7" s="1">
         <f ca="1"/>
-        <v>46.396000000000001</v>
+        <v>46.616999999999997</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -17377,11 +17460,11 @@
       <c r="F8" s="1"/>
       <c r="G8" s="54">
         <f ca="1"/>
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="H8" s="1">
         <f ca="1"/>
-        <v>46.616999999999997</v>
+        <v>46.728999999999999</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -17432,17 +17515,17 @@
       <c r="A12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="121" t="s">
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="103" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="1"/>
@@ -17467,7 +17550,7 @@
       <c r="G13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="120"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -17950,7 +18033,7 @@
     <mergeCell ref="E12:G12"/>
   </mergeCells>
   <conditionalFormatting sqref="H12:H34">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17990,7 +18073,7 @@
       <c r="E1" s="1"/>
       <c r="G1" s="54">
         <f ca="1">TODAY()-5</f>
-        <v>45934</v>
+        <v>45935</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -18046,7 +18129,7 @@
         <v>60</v>
       </c>
       <c r="G3" s="53" cm="1">
-        <f t="array" aca="1" ref="G3:H6" ca="1">_xll.BDH($B$4, "PX_LAST, ", $G$1, "")</f>
+        <f t="array" aca="1" ref="G3:H7" ca="1">_xll.BDH($B$4, "PX_LAST, ", $G$1, "")</f>
         <v>45936</v>
       </c>
       <c r="H3" s="1">
@@ -18054,7 +18137,7 @@
         <v>92.53</v>
       </c>
       <c r="I3" s="53" cm="1">
-        <f t="array" aca="1" ref="I3:J6" ca="1">_xll.BDH($C$4, "PX_LAST, ", $G$1, "")</f>
+        <f t="array" aca="1" ref="I3:J7" ca="1">_xll.BDH($C$4, "PX_LAST, ", $G$1, "")</f>
         <v>45936</v>
       </c>
       <c r="J3" s="47">
@@ -18062,7 +18145,7 @@
         <v>100.917</v>
       </c>
       <c r="K3" s="53" cm="1">
-        <f t="array" aca="1" ref="K3:L6" ca="1">_xll.BDH($D$4, "PX_LAST, ", $G$1, "")</f>
+        <f t="array" aca="1" ref="K3:L7" ca="1">_xll.BDH($D$4, "PX_LAST, ", $G$1, "")</f>
         <v>45936</v>
       </c>
       <c r="L3" s="1">
@@ -18070,7 +18153,7 @@
         <v>120.97499999999999</v>
       </c>
       <c r="M3" s="53" cm="1">
-        <f t="array" aca="1" ref="M3:N6" ca="1">_xll.BDH($E$4, "PX_LAST, ", $G$1, "")</f>
+        <f t="array" aca="1" ref="M3:N7" ca="1">_xll.BDH($E$4, "PX_LAST, ", $G$1, "")</f>
         <v>45936</v>
       </c>
       <c r="N3" s="55">
@@ -18245,14 +18328,38 @@
       <c r="E7" s="10">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="1"/>
+      <c r="G7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="H7" s="1">
+        <f ca="1"/>
+        <v>91.91</v>
+      </c>
+      <c r="I7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="J7" s="1">
+        <f ca="1"/>
+        <v>100.98399999999999</v>
+      </c>
+      <c r="K7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="L7" s="1">
+        <f ca="1"/>
+        <v>120.98</v>
+      </c>
+      <c r="M7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="N7" s="1">
+        <f ca="1"/>
+        <v>99.685000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
@@ -18350,26 +18457,26 @@
       <c r="A12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="106" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="103" t="s">
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="109" t="s">
+      <c r="I12" s="108"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="110"/>
-      <c r="M12" s="111"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="115"/>
       <c r="N12" s="40" t="s">
         <v>16</v>
       </c>
@@ -18412,7 +18519,7 @@
       <c r="M13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="120"/>
+      <c r="N13" s="102"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
@@ -19036,7 +19143,7 @@
     <mergeCell ref="K12:M12"/>
   </mergeCells>
   <conditionalFormatting sqref="N13:N30">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19074,7 +19181,7 @@
       <c r="G1" s="1"/>
       <c r="I1" s="54">
         <f ca="1">TODAY()-5</f>
-        <v>45934</v>
+        <v>45935</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -19152,7 +19259,7 @@
         <v>70</v>
       </c>
       <c r="I3" s="53" cm="1">
-        <f t="array" aca="1" ref="I3:J6" ca="1">_xll.BDH($B$4, "PX_LAST, ", $I$1, "")</f>
+        <f t="array" aca="1" ref="I3:J7" ca="1">_xll.BDH($B$4, "PX_LAST, ", $I$1, "")</f>
         <v>45936</v>
       </c>
       <c r="J3" s="1">
@@ -19160,7 +19267,7 @@
         <v>80.86</v>
       </c>
       <c r="K3" s="53" cm="1">
-        <f t="array" aca="1" ref="K3:L6" ca="1">_xll.BDH($C$4, "PX_LAST, ", $I$1, "")</f>
+        <f t="array" aca="1" ref="K3:L7" ca="1">_xll.BDH($C$4, "PX_LAST, ", $I$1, "")</f>
         <v>45936</v>
       </c>
       <c r="L3" s="47">
@@ -19168,7 +19275,7 @@
         <v>99.5078125</v>
       </c>
       <c r="M3" s="53" cm="1">
-        <f t="array" aca="1" ref="M3:N6" ca="1">_xll.BDH($D$4, "PX_LAST, ", $I$1, "")</f>
+        <f t="array" aca="1" ref="M3:N7" ca="1">_xll.BDH($D$4, "PX_LAST, ", $I$1, "")</f>
         <v>45936</v>
       </c>
       <c r="N3" s="1">
@@ -19176,7 +19283,7 @@
         <v>111.19</v>
       </c>
       <c r="O3" s="53" cm="1">
-        <f t="array" aca="1" ref="O3:P6" ca="1">_xll.BDH($E$4, "PX_LAST, ", $I$1, "")</f>
+        <f t="array" aca="1" ref="O3:P7" ca="1">_xll.BDH($E$4, "PX_LAST, ", $I$1, "")</f>
         <v>45936</v>
       </c>
       <c r="P3" s="55">
@@ -19184,7 +19291,7 @@
         <v>99.5078125</v>
       </c>
       <c r="Q3" s="53" cm="1">
-        <f t="array" aca="1" ref="Q3:R6" ca="1">_xll.BDH($F$4, "PX_LAST, ", $I$1, "")</f>
+        <f t="array" aca="1" ref="Q3:R7" ca="1">_xll.BDH($F$4, "PX_LAST, ", $I$1, "")</f>
         <v>45936</v>
       </c>
       <c r="R3" s="55">
@@ -19192,7 +19299,7 @@
         <v>100.765625</v>
       </c>
       <c r="S3" s="53" cm="1">
-        <f t="array" aca="1" ref="S3:T6" ca="1">_xll.BDH($G$4, "PX_LAST, ", $I$1, "")</f>
+        <f t="array" aca="1" ref="S3:T7" ca="1">_xll.BDH($G$4, "PX_LAST, ", $I$1, "")</f>
         <v>45936</v>
       </c>
       <c r="T3" s="55">
@@ -19386,7 +19493,7 @@
       </c>
       <c r="L6" s="1">
         <f ca="1"/>
-        <v>99.51171875</v>
+        <v>99.50390625</v>
       </c>
       <c r="M6" s="54">
         <f ca="1"/>
@@ -19402,7 +19509,7 @@
       </c>
       <c r="P6" s="55">
         <f ca="1"/>
-        <v>99.51171875</v>
+        <v>99.50390625</v>
       </c>
       <c r="Q6" s="78">
         <f ca="1"/>
@@ -19418,7 +19525,7 @@
       </c>
       <c r="T6" s="55">
         <f ca="1"/>
-        <v>100.46875</v>
+        <v>100.4375</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19443,18 +19550,54 @@
       <c r="G7" s="10">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="1"/>
+      <c r="I7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="J7" s="1">
+        <f ca="1"/>
+        <v>80.459999999999994</v>
+      </c>
+      <c r="K7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="L7" s="1">
+        <f ca="1"/>
+        <v>99.65625</v>
+      </c>
+      <c r="M7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="N7" s="1">
+        <f ca="1"/>
+        <v>111.405</v>
+      </c>
+      <c r="O7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="P7" s="1">
+        <f ca="1"/>
+        <v>99.65625</v>
+      </c>
+      <c r="Q7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="R7" s="1">
+        <f ca="1"/>
+        <v>101.2109375</v>
+      </c>
+      <c r="S7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="T7" s="1">
+        <f ca="1"/>
+        <v>101.1875</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
@@ -19557,7 +19700,7 @@
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>99.5234375</v>
+        <v>99.5078125</v>
       </c>
       <c r="D10" s="21" cm="1">
         <f t="array" ref="D10">_xll.BDP(D4,"px_last")</f>
@@ -19565,7 +19708,7 @@
       </c>
       <c r="E10" s="21" cm="1">
         <f t="array" ref="E10">_xll.BDP(E4,"px_last")</f>
-        <v>99.5234375</v>
+        <v>99.5078125</v>
       </c>
       <c r="F10" s="21" cm="1">
         <f t="array" ref="F10">_xll.BDP(F4,"px_last")</f>
@@ -19573,7 +19716,7 @@
       </c>
       <c r="G10" s="22" cm="1">
         <f t="array" ref="G10">_xll.BDP(G4,"px_last")</f>
-        <v>100.484375</v>
+        <v>100.453125</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="54"/>
@@ -19613,36 +19756,36 @@
       <c r="A12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="106" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="103" t="s">
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="114"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="115" t="s">
+      <c r="I12" s="118"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="116"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="103" t="s">
+      <c r="L12" s="120"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="114"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="112" t="s">
+      <c r="O12" s="118"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="R12" s="110"/>
-      <c r="S12" s="113"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="117"/>
       <c r="T12" s="40" t="s">
         <v>16</v>
       </c>
@@ -19703,7 +19846,7 @@
       <c r="S13" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="120"/>
+      <c r="T13" s="102"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
@@ -21316,7 +21459,7 @@
     <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="54">
         <f ca="1">TODAY()-22</f>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -21361,51 +21504,51 @@
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B45" s="53" cm="1">
         <f t="array" aca="1" ref="B45:C61" ca="1">_xll.BDH($B$4, "PX_LAST, ", B43, "")</f>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="C45" s="1">
         <f ca="1"/>
-        <v>81.05</v>
+        <v>81.23</v>
       </c>
       <c r="D45" s="53" cm="1">
         <f t="array" aca="1" ref="D45:E61" ca="1">_xll.BDH($C$4, "PX_LAST, ", B43, "")</f>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="E45" s="47">
         <f ca="1"/>
-        <v>99.86328125</v>
+        <v>99.82421875</v>
       </c>
       <c r="F45" s="53" cm="1">
         <f t="array" aca="1" ref="F45:G61" ca="1">_xll.BDH($D$4, "PX_LAST, ", B43, "")</f>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="G45" s="1">
         <f ca="1"/>
-        <v>112.06</v>
+        <v>111.83</v>
       </c>
       <c r="H45" s="53" cm="1">
         <f t="array" aca="1" ref="H45:I61" ca="1">_xll.BDH($E$4, "PX_LAST, ", B43, "")</f>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I45" s="55">
         <f ca="1"/>
-        <v>99.86328125</v>
+        <v>99.82421875</v>
       </c>
       <c r="J45" s="53" cm="1">
         <f t="array" aca="1" ref="J45:K61" ca="1">_xll.BDH($F$4, "PX_LAST, ", B43, "")</f>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="K45" s="55">
         <f ca="1"/>
-        <v>101.296875</v>
+        <v>101.15625</v>
       </c>
       <c r="L45" s="53" cm="1">
         <f t="array" aca="1" ref="L45:M61" ca="1">_xll.BDH($G$4, "PX_LAST, ", B43, "")</f>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="M45" s="55">
         <f ca="1"/>
-        <v>100.9296875</v>
+        <v>100.390625</v>
       </c>
       <c r="R45" s="58"/>
       <c r="S45" s="58"/>
@@ -21414,801 +21557,801 @@
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B46" s="78">
         <f ca="1"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="C46" s="60">
         <f ca="1"/>
-        <v>81.23</v>
+        <v>81.260000000000005</v>
       </c>
       <c r="D46" s="78">
         <f ca="1"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="E46" s="60">
         <f ca="1"/>
-        <v>99.82421875</v>
+        <v>99.7578125</v>
       </c>
       <c r="F46" s="78">
         <f ca="1"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="G46" s="55">
         <f ca="1"/>
-        <v>111.83</v>
+        <v>111.74</v>
       </c>
       <c r="H46" s="78">
         <f ca="1"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I46" s="55">
         <f ca="1"/>
-        <v>99.82421875</v>
+        <v>99.7578125</v>
       </c>
       <c r="J46" s="78">
         <f ca="1"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="K46" s="60">
         <f ca="1"/>
-        <v>101.15625</v>
+        <v>100.9765625</v>
       </c>
       <c r="L46" s="78">
         <f ca="1"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="M46" s="55">
         <f ca="1"/>
-        <v>100.390625</v>
+        <v>100.078125</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B47" s="78">
         <f ca="1"/>
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="C47" s="60">
         <f ca="1"/>
-        <v>81.260000000000005</v>
+        <v>81.319999999999993</v>
       </c>
       <c r="D47" s="78">
         <f ca="1"/>
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="E47" s="60">
         <f ca="1"/>
-        <v>99.7578125</v>
+        <v>99.65234375</v>
       </c>
       <c r="F47" s="78">
         <f ca="1"/>
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="G47" s="55">
         <f ca="1"/>
-        <v>111.74</v>
+        <v>111.49</v>
       </c>
       <c r="H47" s="78">
         <f ca="1"/>
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="I47" s="55">
         <f ca="1"/>
-        <v>99.7578125</v>
+        <v>99.65234375</v>
       </c>
       <c r="J47" s="78">
         <f ca="1"/>
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="K47" s="60">
         <f ca="1"/>
-        <v>100.9765625</v>
+        <v>100.8203125</v>
       </c>
       <c r="L47" s="78">
         <f ca="1"/>
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="M47" s="55">
         <f ca="1"/>
-        <v>100.078125</v>
+        <v>99.78125</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B48" s="78">
         <f ca="1"/>
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="C48" s="60">
         <f ca="1"/>
-        <v>81.319999999999993</v>
+        <v>81.260000000000005</v>
       </c>
       <c r="D48" s="78">
         <f ca="1"/>
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="E48" s="60">
         <f ca="1"/>
-        <v>99.65234375</v>
+        <v>99.80078125</v>
       </c>
       <c r="F48" s="78">
         <f ca="1"/>
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="G48" s="55">
         <f ca="1"/>
-        <v>111.49</v>
+        <v>111.71</v>
       </c>
       <c r="H48" s="78">
         <f ca="1"/>
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="I48" s="55">
         <f ca="1"/>
-        <v>99.65234375</v>
+        <v>99.80078125</v>
       </c>
       <c r="J48" s="78">
         <f ca="1"/>
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="K48" s="60">
         <f ca="1"/>
-        <v>100.8203125</v>
+        <v>101.1484375</v>
       </c>
       <c r="L48" s="78">
         <f ca="1"/>
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="M48" s="55">
         <f ca="1"/>
-        <v>99.78125</v>
+        <v>100.4765625</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="78">
         <f ca="1"/>
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="C49" s="60">
         <f ca="1"/>
-        <v>81.260000000000005</v>
+        <v>81.150000000000006</v>
       </c>
       <c r="D49" s="78">
         <f ca="1"/>
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="E49" s="60">
         <f ca="1"/>
-        <v>99.80078125</v>
+        <v>99.58203125</v>
       </c>
       <c r="F49" s="78">
         <f ca="1"/>
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="G49" s="55">
         <f ca="1"/>
-        <v>111.71</v>
+        <v>111.26</v>
       </c>
       <c r="H49" s="78">
         <f ca="1"/>
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="I49" s="55">
         <f ca="1"/>
-        <v>99.80078125</v>
+        <v>99.58203125</v>
       </c>
       <c r="J49" s="78">
         <f ca="1"/>
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="K49" s="60">
         <f ca="1"/>
-        <v>101.1484375</v>
+        <v>100.8203125</v>
       </c>
       <c r="L49" s="78">
         <f ca="1"/>
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="M49" s="55">
         <f ca="1"/>
-        <v>100.4765625</v>
+        <v>99.9765625</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="78">
         <f ca="1"/>
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="C50" s="60">
         <f ca="1"/>
-        <v>81.150000000000006</v>
+        <v>80.92</v>
       </c>
       <c r="D50" s="78">
         <f ca="1"/>
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="E50" s="60">
         <f ca="1"/>
-        <v>99.58203125</v>
+        <v>99.40234375</v>
       </c>
       <c r="F50" s="78">
         <f ca="1"/>
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="G50" s="55">
         <f ca="1"/>
-        <v>111.26</v>
+        <v>111.06</v>
       </c>
       <c r="H50" s="78">
         <f ca="1"/>
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="I50" s="55">
         <f ca="1"/>
-        <v>99.58203125</v>
+        <v>99.40234375</v>
       </c>
       <c r="J50" s="78">
         <f ca="1"/>
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="K50" s="60">
         <f ca="1"/>
-        <v>100.8203125</v>
+        <v>100.6328125</v>
       </c>
       <c r="L50" s="78">
         <f ca="1"/>
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="M50" s="55">
         <f ca="1"/>
-        <v>99.9765625</v>
+        <v>100.0234375</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="78">
         <f ca="1"/>
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="C51" s="60">
         <f ca="1"/>
-        <v>80.92</v>
+        <v>81.08</v>
       </c>
       <c r="D51" s="78">
         <f ca="1"/>
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="E51" s="60">
         <f ca="1"/>
-        <v>99.40234375</v>
+        <v>99.37890625</v>
       </c>
       <c r="F51" s="78">
         <f ca="1"/>
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="G51" s="55">
         <f ca="1"/>
-        <v>111.06</v>
+        <v>111.21</v>
       </c>
       <c r="H51" s="78">
         <f ca="1"/>
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="I51" s="55">
         <f ca="1"/>
-        <v>99.40234375</v>
+        <v>99.37890625</v>
       </c>
       <c r="J51" s="78">
         <f ca="1"/>
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="K51" s="60">
         <f ca="1"/>
-        <v>100.6328125</v>
+        <v>100.5859375</v>
       </c>
       <c r="L51" s="78">
         <f ca="1"/>
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="M51" s="55">
         <f ca="1"/>
-        <v>100.0234375</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="78">
         <f ca="1"/>
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="C52" s="60">
         <f ca="1"/>
-        <v>81.08</v>
+        <v>81.22</v>
       </c>
       <c r="D52" s="78">
         <f ca="1"/>
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="E52" s="60">
         <f ca="1"/>
-        <v>99.37890625</v>
+        <v>99.5078125</v>
       </c>
       <c r="F52" s="78">
         <f ca="1"/>
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="G52" s="55">
         <f ca="1"/>
-        <v>111.21</v>
+        <v>111.58</v>
       </c>
       <c r="H52" s="78">
         <f ca="1"/>
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="I52" s="55">
         <f ca="1"/>
-        <v>99.37890625</v>
+        <v>99.5078125</v>
       </c>
       <c r="J52" s="78">
         <f ca="1"/>
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="K52" s="60">
         <f ca="1"/>
-        <v>100.5859375</v>
+        <v>100.8828125</v>
       </c>
       <c r="L52" s="78">
         <f ca="1"/>
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="M52" s="55">
         <f ca="1"/>
-        <v>100</v>
+        <v>100.71875</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="78">
         <f ca="1"/>
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="C53" s="60">
         <f ca="1"/>
-        <v>81.22</v>
+        <v>81.19</v>
       </c>
       <c r="D53" s="78">
         <f ca="1"/>
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="E53" s="60">
         <f ca="1"/>
-        <v>99.5078125</v>
+        <v>99.48046875</v>
       </c>
       <c r="F53" s="78">
         <f ca="1"/>
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="G53" s="55">
         <f ca="1"/>
-        <v>111.58</v>
+        <v>111.47</v>
       </c>
       <c r="H53" s="78">
         <f ca="1"/>
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="I53" s="55">
         <f ca="1"/>
-        <v>99.5078125</v>
+        <v>99.48046875</v>
       </c>
       <c r="J53" s="78">
         <f ca="1"/>
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="K53" s="60">
         <f ca="1"/>
-        <v>100.8828125</v>
+        <v>100.7890625</v>
       </c>
       <c r="L53" s="78">
         <f ca="1"/>
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="M53" s="55">
         <f ca="1"/>
-        <v>100.71875</v>
+        <v>100.28125</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="78">
         <f ca="1"/>
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="C54" s="55">
         <f ca="1"/>
-        <v>81.19</v>
+        <v>80.959999999999994</v>
       </c>
       <c r="D54" s="78">
         <f ca="1"/>
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="E54" s="55">
         <f ca="1"/>
-        <v>99.48046875</v>
+        <v>99.78515625</v>
       </c>
       <c r="F54" s="78">
         <f ca="1"/>
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="G54" s="55">
         <f ca="1"/>
-        <v>111.47</v>
+        <v>111.51</v>
       </c>
       <c r="H54" s="78">
         <f ca="1"/>
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="I54" s="55">
         <f ca="1"/>
-        <v>99.48046875</v>
+        <v>99.78515625</v>
       </c>
       <c r="J54" s="78">
         <f ca="1"/>
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="K54" s="55">
         <f ca="1"/>
-        <v>100.7890625</v>
+        <v>101.2109375</v>
       </c>
       <c r="L54" s="78">
         <f ca="1"/>
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="M54" s="55">
         <f ca="1"/>
-        <v>100.28125</v>
+        <v>100.6328125</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="78">
         <f ca="1"/>
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="C55" s="55">
         <f ca="1"/>
-        <v>80.959999999999994</v>
+        <v>80.930000000000007</v>
       </c>
       <c r="D55" s="78">
         <f ca="1"/>
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="E55" s="55">
         <f ca="1"/>
-        <v>99.78515625</v>
+        <v>99.79296875</v>
       </c>
       <c r="F55" s="78">
         <f ca="1"/>
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="G55" s="55">
         <f ca="1"/>
-        <v>111.51</v>
+        <v>111.69</v>
       </c>
       <c r="H55" s="78">
         <f ca="1"/>
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="I55" s="55">
         <f ca="1"/>
-        <v>99.78515625</v>
+        <v>99.79296875</v>
       </c>
       <c r="J55" s="78">
         <f ca="1"/>
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="K55" s="55">
         <f ca="1"/>
-        <v>101.2109375</v>
+        <v>101.3359375</v>
       </c>
       <c r="L55" s="78">
         <f ca="1"/>
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="M55" s="55">
         <f ca="1"/>
-        <v>100.6328125</v>
+        <v>100.96875</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="78">
         <f ca="1"/>
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="C56" s="55">
         <f ca="1"/>
-        <v>80.930000000000007</v>
+        <v>80.84</v>
       </c>
       <c r="D56" s="78">
         <f ca="1"/>
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="E56" s="55">
         <f ca="1"/>
-        <v>99.79296875</v>
+        <v>99.58984375</v>
       </c>
       <c r="F56" s="78">
         <f ca="1"/>
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="G56" s="55">
         <f ca="1"/>
-        <v>111.69</v>
+        <v>111.55</v>
       </c>
       <c r="H56" s="78">
         <f ca="1"/>
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="I56" s="55">
         <f ca="1"/>
-        <v>99.79296875</v>
+        <v>99.58984375</v>
       </c>
       <c r="J56" s="78">
         <f ca="1"/>
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="K56" s="55">
         <f ca="1"/>
-        <v>101.3359375</v>
+        <v>101.0390625</v>
       </c>
       <c r="L56" s="78">
         <f ca="1"/>
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="M56" s="55">
         <f ca="1"/>
-        <v>100.96875</v>
+        <v>100.59375</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="78">
         <f ca="1"/>
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="C57" s="55">
         <f ca="1"/>
-        <v>80.84</v>
+        <v>80.86</v>
       </c>
       <c r="D57" s="78">
         <f ca="1"/>
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="E57" s="55">
         <f ca="1"/>
-        <v>99.58984375</v>
+        <v>99.5078125</v>
       </c>
       <c r="F57" s="78">
         <f ca="1"/>
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="G57" s="55">
         <f ca="1"/>
-        <v>111.55</v>
+        <v>111.19</v>
       </c>
       <c r="H57" s="78">
         <f ca="1"/>
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="I57" s="55">
         <f ca="1"/>
-        <v>99.58984375</v>
+        <v>99.5078125</v>
       </c>
       <c r="J57" s="78">
         <f ca="1"/>
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="K57" s="55">
         <f ca="1"/>
-        <v>101.0390625</v>
+        <v>100.765625</v>
       </c>
       <c r="L57" s="78">
         <f ca="1"/>
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="M57" s="55">
         <f ca="1"/>
-        <v>100.59375</v>
+        <v>100.015625</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="78">
         <f ca="1"/>
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="C58" s="55">
         <f ca="1"/>
-        <v>80.86</v>
+        <v>80.77</v>
       </c>
       <c r="D58" s="78">
         <f ca="1"/>
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="E58" s="55">
         <f ca="1"/>
-        <v>99.5078125</v>
+        <v>99.65625</v>
       </c>
       <c r="F58" s="78">
         <f ca="1"/>
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="G58" s="55">
         <f ca="1"/>
-        <v>111.19</v>
+        <v>111.4</v>
       </c>
       <c r="H58" s="78">
         <f ca="1"/>
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="I58" s="55">
         <f ca="1"/>
-        <v>99.5078125</v>
+        <v>99.65625</v>
       </c>
       <c r="J58" s="78">
         <f ca="1"/>
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="K58" s="55">
         <f ca="1"/>
-        <v>100.765625</v>
+        <v>101.0078125</v>
       </c>
       <c r="L58" s="78">
         <f ca="1"/>
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="M58" s="55">
         <f ca="1"/>
-        <v>100.015625</v>
+        <v>100.40625</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="78">
         <f ca="1"/>
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="C59" s="55">
         <f ca="1"/>
-        <v>80.77</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="D59" s="78">
         <f ca="1"/>
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="E59" s="55">
         <f ca="1"/>
-        <v>99.65625</v>
+        <v>99.6015625</v>
       </c>
       <c r="F59" s="78">
         <f ca="1"/>
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="G59" s="55">
         <f ca="1"/>
-        <v>111.4</v>
+        <v>111.26</v>
       </c>
       <c r="H59" s="78">
         <f ca="1"/>
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="I59" s="55">
         <f ca="1"/>
-        <v>99.65625</v>
+        <v>99.6015625</v>
       </c>
       <c r="J59" s="78">
         <f ca="1"/>
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="K59" s="55">
         <f ca="1"/>
-        <v>101.0078125</v>
+        <v>101.046875</v>
       </c>
       <c r="L59" s="78">
         <f ca="1"/>
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="M59" s="55">
         <f ca="1"/>
-        <v>100.40625</v>
+        <v>100.6484375</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="78">
         <f ca="1"/>
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="C60" s="55">
         <f ca="1"/>
-        <v>80.650000000000006</v>
+        <v>80.42</v>
       </c>
       <c r="D60" s="78">
         <f ca="1"/>
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E60" s="55">
         <f ca="1"/>
-        <v>99.6015625</v>
+        <v>99.50390625</v>
       </c>
       <c r="F60" s="78">
         <f ca="1"/>
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="G60" s="55">
         <f ca="1"/>
-        <v>111.26</v>
+        <v>111.04</v>
       </c>
       <c r="H60" s="78">
         <f ca="1"/>
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="I60" s="55">
         <f ca="1"/>
-        <v>99.6015625</v>
+        <v>99.50390625</v>
       </c>
       <c r="J60" s="78">
         <f ca="1"/>
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="K60" s="55">
         <f ca="1"/>
-        <v>101.046875</v>
+        <v>100.8828125</v>
       </c>
       <c r="L60" s="78">
         <f ca="1"/>
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="M60" s="55">
         <f ca="1"/>
-        <v>100.6484375</v>
+        <v>100.4375</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="78">
         <f ca="1"/>
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="C61" s="55">
         <f ca="1"/>
-        <v>80.42</v>
+        <v>80.459999999999994</v>
       </c>
       <c r="D61" s="78">
         <f ca="1"/>
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="E61" s="55">
         <f ca="1"/>
-        <v>99.51171875</v>
+        <v>99.65625</v>
       </c>
       <c r="F61" s="78">
         <f ca="1"/>
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="G61" s="55">
         <f ca="1"/>
-        <v>111.04</v>
+        <v>111.405</v>
       </c>
       <c r="H61" s="78">
         <f ca="1"/>
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="I61" s="55">
         <f ca="1"/>
-        <v>99.51171875</v>
+        <v>99.65625</v>
       </c>
       <c r="J61" s="78">
         <f ca="1"/>
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="K61" s="55">
         <f ca="1"/>
-        <v>100.8828125</v>
+        <v>101.2109375</v>
       </c>
       <c r="L61" s="78">
         <f ca="1"/>
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="M61" s="55">
         <f ca="1"/>
-        <v>100.46875</v>
+        <v>101.1875</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
@@ -22266,7 +22409,7 @@
     <mergeCell ref="N12:P12"/>
   </mergeCells>
   <conditionalFormatting sqref="T13:T35">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22279,8 +22422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EA3848-A484-4C66-B70D-DE0974E6095A}">
   <dimension ref="A1:AE73"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22315,7 +22458,7 @@
       <c r="G1" s="1"/>
       <c r="I1" s="54">
         <f ca="1">TODAY()-5</f>
-        <v>45934</v>
+        <v>45935</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -22393,7 +22536,7 @@
         <v>77</v>
       </c>
       <c r="I3" s="53" cm="1">
-        <f t="array" aca="1" ref="I3:J6" ca="1">_xll.BDH($B$4, "PX_LAST, ", $I$1, "")</f>
+        <f t="array" aca="1" ref="I3:J7" ca="1">_xll.BDH($B$4, "PX_LAST, ", $I$1, "")</f>
         <v>45936</v>
       </c>
       <c r="J3" s="1">
@@ -22401,7 +22544,7 @@
         <v>111.19</v>
       </c>
       <c r="K3" s="53" cm="1">
-        <f t="array" aca="1" ref="K3:L6" ca="1">_xll.BDH($C$4, "PX_LAST, ", $I$1, "")</f>
+        <f t="array" aca="1" ref="K3:L7" ca="1">_xll.BDH($C$4, "PX_LAST, ", $I$1, "")</f>
         <v>45936</v>
       </c>
       <c r="L3" s="47">
@@ -22409,7 +22552,7 @@
         <v>99.50390625</v>
       </c>
       <c r="M3" s="53" cm="1">
-        <f t="array" aca="1" ref="M3:N6" ca="1">_xll.BDH($D$4, "PX_LAST, ", $I$1, "")</f>
+        <f t="array" aca="1" ref="M3:N7" ca="1">_xll.BDH($D$4, "PX_LAST, ", $I$1, "")</f>
         <v>45936</v>
       </c>
       <c r="N3" s="1">
@@ -22417,7 +22560,7 @@
         <v>100.765625</v>
       </c>
       <c r="O3" s="53" cm="1">
-        <f t="array" aca="1" ref="O3:P6" ca="1">_xll.BDH($E$4, "PX_LAST, ", $I$1, "")</f>
+        <f t="array" aca="1" ref="O3:P7" ca="1">_xll.BDH($E$4, "PX_LAST, ", $I$1, "")</f>
         <v>45936</v>
       </c>
       <c r="P3" s="55">
@@ -22425,7 +22568,7 @@
         <v>100.015625</v>
       </c>
       <c r="Q3" s="53" cm="1">
-        <f t="array" aca="1" ref="Q3:R6" ca="1">_xll.BDH($F$4, "PX_LAST, ", $I$1, "")</f>
+        <f t="array" aca="1" ref="Q3:R7" ca="1">_xll.BDH($F$4, "PX_LAST, ", $I$1, "")</f>
         <v>45936</v>
       </c>
       <c r="R3" s="55">
@@ -22433,7 +22576,7 @@
         <v>83.89</v>
       </c>
       <c r="S3" s="53" cm="1">
-        <f t="array" aca="1" ref="S3:T6" ca="1">_xll.BDH($G$4, "PX_LAST, ", $I$1, "")</f>
+        <f t="array" aca="1" ref="S3:T7" ca="1">_xll.BDH($G$4, "PX_LAST, ", $I$1, "")</f>
         <v>45936</v>
       </c>
       <c r="T3" s="55">
@@ -22652,7 +22795,7 @@
       </c>
       <c r="L6" s="1">
         <f ca="1"/>
-        <v>99.50390625</v>
+        <v>99.49609375</v>
       </c>
       <c r="M6" s="54">
         <f ca="1"/>
@@ -22668,7 +22811,7 @@
       </c>
       <c r="P6" s="55">
         <f ca="1"/>
-        <v>100.46875</v>
+        <v>100.4375</v>
       </c>
       <c r="Q6" s="78">
         <f ca="1"/>
@@ -22684,7 +22827,7 @@
       </c>
       <c r="T6" s="55">
         <f ca="1"/>
-        <v>99.7265625</v>
+        <v>99.71875</v>
       </c>
       <c r="V6" s="98" t="s">
         <v>80</v>
@@ -22718,18 +22861,54 @@
       <c r="G7" s="10">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="1"/>
+      <c r="I7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="J7" s="1">
+        <f ca="1"/>
+        <v>111.405</v>
+      </c>
+      <c r="K7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="L7" s="1">
+        <f ca="1"/>
+        <v>99.65234375</v>
+      </c>
+      <c r="M7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="N7" s="1">
+        <f ca="1"/>
+        <v>101.2109375</v>
+      </c>
+      <c r="O7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="P7" s="1">
+        <f ca="1"/>
+        <v>101.1875</v>
+      </c>
+      <c r="Q7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="R7" s="1">
+        <f ca="1"/>
+        <v>83.97</v>
+      </c>
+      <c r="S7" s="54">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="T7" s="1">
+        <f ca="1"/>
+        <v>99.9609375</v>
+      </c>
       <c r="V7" s="82"/>
       <c r="W7" s="21">
         <v>0.41</v>
@@ -22820,7 +22999,7 @@
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>99.5078125</v>
+        <v>99.5</v>
       </c>
       <c r="D10" s="21" cm="1">
         <f t="array" ref="D10">_xll.BDP(D4,"px_last")</f>
@@ -22828,7 +23007,7 @@
       </c>
       <c r="E10" s="21" cm="1">
         <f t="array" ref="E10">_xll.BDP(E4,"px_last")</f>
-        <v>100.484375</v>
+        <v>100.453125</v>
       </c>
       <c r="F10" s="21" cm="1">
         <f t="array" ref="F10">_xll.BDP(F4,"px_last")</f>
@@ -22878,36 +23057,36 @@
       <c r="A12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="106" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="103" t="s">
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="114"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="115" t="s">
+      <c r="I12" s="118"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="116"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="103" t="s">
+      <c r="L12" s="120"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="114"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="112" t="s">
+      <c r="O12" s="118"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="R12" s="110"/>
-      <c r="S12" s="113"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="117"/>
       <c r="T12" s="40" t="s">
         <v>16</v>
       </c>
@@ -22969,7 +23148,7 @@
       <c r="S13" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="120"/>
+      <c r="T13" s="102"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
@@ -24153,7 +24332,7 @@
     <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="54">
         <f ca="1">TODAY()-12</f>
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -24197,7 +24376,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B45" s="53" cm="1">
-        <f t="array" aca="1" ref="B45:C53" ca="1">_xll.BDH($B$4, "PX_LAST, ", B43, "")</f>
+        <f t="array" aca="1" ref="B45:C54" ca="1">_xll.BDH($B$4, "PX_LAST, ", B43, "")</f>
         <v>45929</v>
       </c>
       <c r="C45" s="1">
@@ -24205,7 +24384,7 @@
         <v>111.58</v>
       </c>
       <c r="D45" s="53" cm="1">
-        <f t="array" aca="1" ref="D45:E53" ca="1">_xll.BDH($C$4, "PX_LAST, ", B43, "")</f>
+        <f t="array" aca="1" ref="D45:E54" ca="1">_xll.BDH($C$4, "PX_LAST, ", B43, "")</f>
         <v>45929</v>
       </c>
       <c r="E45" s="47">
@@ -24213,7 +24392,7 @@
         <v>99.50390625</v>
       </c>
       <c r="F45" s="53" cm="1">
-        <f t="array" aca="1" ref="F45:G53" ca="1">_xll.BDH($D$4, "PX_LAST, ", B43, "")</f>
+        <f t="array" aca="1" ref="F45:G54" ca="1">_xll.BDH($D$4, "PX_LAST, ", B43, "")</f>
         <v>45929</v>
       </c>
       <c r="G45" s="1">
@@ -24221,7 +24400,7 @@
         <v>100.8828125</v>
       </c>
       <c r="H45" s="53" cm="1">
-        <f t="array" aca="1" ref="H45:I53" ca="1">_xll.BDH($E$4, "PX_LAST, ", B43, "")</f>
+        <f t="array" aca="1" ref="H45:I54" ca="1">_xll.BDH($E$4, "PX_LAST, ", B43, "")</f>
         <v>45929</v>
       </c>
       <c r="I45" s="55">
@@ -24229,7 +24408,7 @@
         <v>100.71875</v>
       </c>
       <c r="J45" s="53" cm="1">
-        <f t="array" aca="1" ref="J45:K53" ca="1">_xll.BDH($F$4, "PX_LAST, ", B43, "")</f>
+        <f t="array" aca="1" ref="J45:K54" ca="1">_xll.BDH($F$4, "PX_LAST, ", B43, "")</f>
         <v>45929</v>
       </c>
       <c r="K45" s="55">
@@ -24237,7 +24416,7 @@
         <v>84.11</v>
       </c>
       <c r="L45" s="53" cm="1">
-        <f t="array" aca="1" ref="L45:M53" ca="1">_xll.BDH($G$4, "PX_LAST, ", B43, "")</f>
+        <f t="array" aca="1" ref="L45:M54" ca="1">_xll.BDH($G$4, "PX_LAST, ", B43, "")</f>
         <v>45929</v>
       </c>
       <c r="M45" s="55">
@@ -24613,7 +24792,7 @@
       </c>
       <c r="E53" s="60">
         <f ca="1"/>
-        <v>99.50390625</v>
+        <v>99.49609375</v>
       </c>
       <c r="F53" s="78">
         <f ca="1"/>
@@ -24629,7 +24808,7 @@
       </c>
       <c r="I53" s="55">
         <f ca="1"/>
-        <v>100.46875</v>
+        <v>100.4375</v>
       </c>
       <c r="J53" s="78">
         <f ca="1"/>
@@ -24645,16 +24824,58 @@
       </c>
       <c r="M53" s="55">
         <f ca="1"/>
-        <v>99.7265625</v>
+        <v>99.71875</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="L54" s="78"/>
+      <c r="B54" s="78">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="C54" s="55">
+        <f ca="1"/>
+        <v>111.405</v>
+      </c>
+      <c r="D54" s="78">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="E54" s="55">
+        <f ca="1"/>
+        <v>99.65234375</v>
+      </c>
+      <c r="F54" s="78">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="G54" s="55">
+        <f ca="1"/>
+        <v>101.2109375</v>
+      </c>
+      <c r="H54" s="78">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="I54" s="55">
+        <f ca="1"/>
+        <v>101.1875</v>
+      </c>
+      <c r="J54" s="78">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="K54" s="55">
+        <f ca="1"/>
+        <v>83.97</v>
+      </c>
+      <c r="L54" s="78">
+        <f ca="1"/>
+        <v>45940</v>
+      </c>
+      <c r="M54" s="55">
+        <f ca="1"/>
+        <v>99.9609375</v>
+      </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="78"/>
@@ -24767,7 +24988,7 @@
     <mergeCell ref="N12:P12"/>
   </mergeCells>
   <conditionalFormatting sqref="T13:T32">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
